--- a/Code/Results/Cases/Case_7_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007897577639323</v>
+        <v>1.028048481433989</v>
       </c>
       <c r="D2">
-        <v>1.022764567626468</v>
+        <v>1.039935456727558</v>
       </c>
       <c r="E2">
-        <v>1.019010628525178</v>
+        <v>1.037108232882714</v>
       </c>
       <c r="F2">
-        <v>1.021901513549435</v>
+        <v>1.040840016335458</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0434187770493</v>
+        <v>1.053358454287962</v>
       </c>
       <c r="J2">
-        <v>1.029844612376812</v>
+        <v>1.049421451267362</v>
       </c>
       <c r="K2">
-        <v>1.033915610511387</v>
+        <v>1.050865111094781</v>
       </c>
       <c r="L2">
-        <v>1.030211318996761</v>
+        <v>1.048073709661085</v>
       </c>
       <c r="M2">
-        <v>1.033063930228567</v>
+        <v>1.051758260726181</v>
       </c>
       <c r="N2">
-        <v>1.031307109851229</v>
+        <v>1.050911750098484</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015947065594418</v>
+        <v>1.034373361924713</v>
       </c>
       <c r="D3">
-        <v>1.028881316488573</v>
+        <v>1.044813919446375</v>
       </c>
       <c r="E3">
-        <v>1.026142135417041</v>
+        <v>1.042690648382643</v>
       </c>
       <c r="F3">
-        <v>1.029826255737359</v>
+        <v>1.047133020600364</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04583386679373</v>
+        <v>1.055630965998857</v>
       </c>
       <c r="J3">
-        <v>1.036012240367258</v>
+        <v>1.053968901448169</v>
       </c>
       <c r="K3">
-        <v>1.039157525016384</v>
+        <v>1.054903793384053</v>
       </c>
       <c r="L3">
-        <v>1.03645110215909</v>
+        <v>1.052804948073798</v>
       </c>
       <c r="M3">
-        <v>1.040091213726637</v>
+        <v>1.057196355632958</v>
       </c>
       <c r="N3">
-        <v>1.037483496580844</v>
+        <v>1.055465658180148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020990080668716</v>
+        <v>1.038360238152656</v>
       </c>
       <c r="D4">
-        <v>1.032715246905176</v>
+        <v>1.047891256473311</v>
       </c>
       <c r="E4">
-        <v>1.030616208749352</v>
+        <v>1.046215030277429</v>
       </c>
       <c r="F4">
-        <v>1.034800072449773</v>
+        <v>1.051107693895408</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047333785907885</v>
+        <v>1.057053055777379</v>
       </c>
       <c r="J4">
-        <v>1.039871682685616</v>
+        <v>1.056831104183707</v>
       </c>
       <c r="K4">
-        <v>1.042434232342674</v>
+        <v>1.057444094397698</v>
       </c>
       <c r="L4">
-        <v>1.040358648622392</v>
+        <v>1.055785929209967</v>
       </c>
       <c r="M4">
-        <v>1.044495878100582</v>
+        <v>1.060626072896485</v>
       </c>
       <c r="N4">
-        <v>1.041348419749979</v>
+        <v>1.05833192557187</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023072908754549</v>
+        <v>1.040012210705227</v>
       </c>
       <c r="D5">
-        <v>1.034299008097614</v>
+        <v>1.049166814907633</v>
       </c>
       <c r="E5">
-        <v>1.032465448646471</v>
+        <v>1.047676634953416</v>
       </c>
       <c r="F5">
-        <v>1.036856401204388</v>
+        <v>1.05275646407389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047950049141528</v>
+        <v>1.057639765165464</v>
       </c>
       <c r="J5">
-        <v>1.041464508999602</v>
+        <v>1.05801599340763</v>
       </c>
       <c r="K5">
-        <v>1.043785696567041</v>
+        <v>1.058495306121382</v>
       </c>
       <c r="L5">
-        <v>1.04197203379519</v>
+        <v>1.057020734571477</v>
       </c>
       <c r="M5">
-        <v>1.046315482444848</v>
+        <v>1.062047578149346</v>
       </c>
       <c r="N5">
-        <v>1.04294350806003</v>
+        <v>1.0595184974744</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023420505152395</v>
+        <v>1.040288203823201</v>
       </c>
       <c r="D6">
-        <v>1.034563330987035</v>
+        <v>1.04937994568901</v>
       </c>
       <c r="E6">
-        <v>1.03277414166617</v>
+        <v>1.047920896522718</v>
       </c>
       <c r="F6">
-        <v>1.03719969571349</v>
+        <v>1.053032030100104</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048052703826784</v>
+        <v>1.057737635522069</v>
       </c>
       <c r="J6">
-        <v>1.041730259708899</v>
+        <v>1.058213887117802</v>
       </c>
       <c r="K6">
-        <v>1.044011126283829</v>
+        <v>1.058670848800075</v>
       </c>
       <c r="L6">
-        <v>1.042241256051462</v>
+        <v>1.057227008807154</v>
       </c>
       <c r="M6">
-        <v>1.046619173195577</v>
+        <v>1.062285089217614</v>
       </c>
       <c r="N6">
-        <v>1.043209636165817</v>
+        <v>1.059716672216339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021018054927396</v>
+        <v>1.038382405094823</v>
       </c>
       <c r="D7">
-        <v>1.032736517217929</v>
+        <v>1.047908370806325</v>
       </c>
       <c r="E7">
-        <v>1.030641040310087</v>
+        <v>1.046234637831388</v>
       </c>
       <c r="F7">
-        <v>1.034827682646387</v>
+        <v>1.051129810584401</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047342075726531</v>
+        <v>1.057060938612509</v>
       </c>
       <c r="J7">
-        <v>1.039893080508203</v>
+        <v>1.05684700788195</v>
       </c>
       <c r="K7">
-        <v>1.042452391193513</v>
+        <v>1.057458205532965</v>
       </c>
       <c r="L7">
-        <v>1.040380319837054</v>
+        <v>1.055802499941021</v>
       </c>
       <c r="M7">
-        <v>1.044520315442534</v>
+        <v>1.060645145823563</v>
       </c>
       <c r="N7">
-        <v>1.041369847959928</v>
+        <v>1.058347851855189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010653717578541</v>
+        <v>1.030208652340819</v>
       </c>
       <c r="D8">
-        <v>1.024858481564356</v>
+        <v>1.041601113417531</v>
       </c>
       <c r="E8">
-        <v>1.021451089378016</v>
+        <v>1.039013628947995</v>
       </c>
       <c r="F8">
-        <v>1.024613003695995</v>
+        <v>1.042987614577601</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044248435066007</v>
+        <v>1.054136754624804</v>
       </c>
       <c r="J8">
-        <v>1.031957328018957</v>
+        <v>1.050975437039668</v>
       </c>
       <c r="K8">
-        <v>1.035711936354744</v>
+        <v>1.052245582017918</v>
       </c>
       <c r="L8">
-        <v>1.032348124925198</v>
+        <v>1.049689847681088</v>
       </c>
       <c r="M8">
-        <v>1.035469586059795</v>
+        <v>1.053615150475557</v>
       </c>
       <c r="N8">
-        <v>1.033422825791904</v>
+        <v>1.052467942708832</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9910028506638003</v>
+        <v>1.014936666849761</v>
       </c>
       <c r="D9">
-        <v>1.009942828785102</v>
+        <v>1.029838019595527</v>
       </c>
       <c r="E9">
-        <v>1.004082033853095</v>
+        <v>1.025569052910497</v>
       </c>
       <c r="F9">
-        <v>1.005322645809209</v>
+        <v>1.027840171026834</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038279169037051</v>
+        <v>1.048591755090742</v>
       </c>
       <c r="J9">
-        <v>1.016877371494022</v>
+        <v>1.039972778700842</v>
       </c>
       <c r="K9">
-        <v>1.022876624263186</v>
+        <v>1.042464858857185</v>
       </c>
       <c r="L9">
-        <v>1.017109228269714</v>
+        <v>1.038260477306119</v>
       </c>
       <c r="M9">
-        <v>1.018329953056832</v>
+        <v>1.040497150631962</v>
       </c>
       <c r="N9">
-        <v>1.018321453999008</v>
+        <v>1.041449659333142</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9767777177618663</v>
+        <v>1.004080521966442</v>
       </c>
       <c r="D10">
-        <v>0.999170608742472</v>
+        <v>1.021496520971827</v>
       </c>
       <c r="E10">
-        <v>0.9915541432878827</v>
+        <v>1.016048520817795</v>
       </c>
       <c r="F10">
-        <v>0.9914169587779184</v>
+        <v>1.017120362791975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033892647751359</v>
+        <v>1.044598032090411</v>
       </c>
       <c r="J10">
-        <v>1.005943979739247</v>
+        <v>1.032133173189817</v>
       </c>
       <c r="K10">
-        <v>1.013554854268993</v>
+        <v>1.03548820120951</v>
       </c>
       <c r="L10">
-        <v>1.006077583268978</v>
+        <v>1.030133936379857</v>
       </c>
       <c r="M10">
-        <v>1.005942931427051</v>
+        <v>1.031187234190948</v>
       </c>
       <c r="N10">
-        <v>1.007372535573864</v>
+        <v>1.033598920683076</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9702998623486232</v>
+        <v>0.9991965844209304</v>
       </c>
       <c r="D11">
-        <v>0.9942739114047647</v>
+        <v>1.017750115827078</v>
       </c>
       <c r="E11">
-        <v>0.9858620410571074</v>
+        <v>1.011775247044292</v>
       </c>
       <c r="F11">
-        <v>0.9851000779462343</v>
+        <v>1.012309924254858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031880964075331</v>
+        <v>1.042789794375708</v>
       </c>
       <c r="J11">
-        <v>1.000962612549437</v>
+        <v>1.028602824657925</v>
       </c>
       <c r="K11">
-        <v>1.009304627346552</v>
+        <v>1.032344878529518</v>
       </c>
       <c r="L11">
-        <v>1.001055596152976</v>
+        <v>1.026478464278009</v>
       </c>
       <c r="M11">
-        <v>1.000308563611205</v>
+        <v>1.027003368244459</v>
       </c>
       <c r="N11">
-        <v>1.002384094271273</v>
+        <v>1.030063558651332</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9678406833575894</v>
+        <v>0.9973527426514137</v>
       </c>
       <c r="D12">
-        <v>0.9924165764482789</v>
+        <v>1.01633680030988</v>
       </c>
       <c r="E12">
-        <v>0.9837032918071905</v>
+        <v>1.010163527471805</v>
       </c>
       <c r="F12">
-        <v>0.9827044977959363</v>
+        <v>1.010495735099235</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031115282683235</v>
+        <v>1.042105466412899</v>
       </c>
       <c r="J12">
-        <v>0.9990713202228885</v>
+        <v>1.02726956326578</v>
       </c>
       <c r="K12">
-        <v>1.00769051944463</v>
+        <v>1.031157566031859</v>
       </c>
       <c r="L12">
-        <v>0.9991495158059062</v>
+        <v>1.025098566801578</v>
       </c>
       <c r="M12">
-        <v>0.9981707269937807</v>
+        <v>1.025424578541799</v>
       </c>
       <c r="N12">
-        <v>1.000490116092687</v>
+        <v>1.028728403875083</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9683706768387387</v>
+        <v>0.997749636457039</v>
       </c>
       <c r="D13">
-        <v>0.9928167860997686</v>
+        <v>1.016640971104507</v>
       </c>
       <c r="E13">
-        <v>0.98416843786774</v>
+        <v>1.01051038312104</v>
       </c>
       <c r="F13">
-        <v>0.9832206696584397</v>
+        <v>1.010886158776903</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031280386955643</v>
+        <v>1.042252844272483</v>
       </c>
       <c r="J13">
-        <v>0.9994789321711542</v>
+        <v>1.027556571349217</v>
       </c>
       <c r="K13">
-        <v>1.008038409967054</v>
+        <v>1.031413165318844</v>
       </c>
       <c r="L13">
-        <v>0.9995602860539403</v>
+        <v>1.025395586177604</v>
       </c>
       <c r="M13">
-        <v>0.9986314120903722</v>
+        <v>1.025764383503174</v>
       </c>
       <c r="N13">
-        <v>1.000898306896673</v>
+        <v>1.029015819542919</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9700977002382318</v>
+        <v>0.9990447920098049</v>
       </c>
       <c r="D14">
-        <v>0.9941211912480815</v>
+        <v>1.017633743503167</v>
       </c>
       <c r="E14">
-        <v>0.9856845319013614</v>
+        <v>1.011642531213947</v>
       </c>
       <c r="F14">
-        <v>0.9849030927212944</v>
+        <v>1.012160533847872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031818059031832</v>
+        <v>1.042733491020635</v>
       </c>
       <c r="J14">
-        <v>1.000807138348415</v>
+        <v>1.028493073750745</v>
       </c>
       <c r="K14">
-        <v>1.009171947101076</v>
+        <v>1.032247145996526</v>
       </c>
       <c r="L14">
-        <v>1.000898893376597</v>
+        <v>1.026364861842368</v>
       </c>
       <c r="M14">
-        <v>1.000132794237249</v>
+        <v>1.026873380195115</v>
       </c>
       <c r="N14">
-        <v>1.002228399279053</v>
+        <v>1.029953651885276</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9711545823590928</v>
+        <v>0.9998387703593207</v>
       </c>
       <c r="D15">
-        <v>0.9949196623721214</v>
+        <v>1.018242494933968</v>
       </c>
       <c r="E15">
-        <v>0.9866126189344937</v>
+        <v>1.012336790783872</v>
       </c>
       <c r="F15">
-        <v>0.9859330126303982</v>
+        <v>1.012942026023469</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032146840069004</v>
+        <v>1.043027929052964</v>
       </c>
       <c r="J15">
-        <v>1.001619932932375</v>
+        <v>1.029067128714777</v>
       </c>
       <c r="K15">
-        <v>1.009865562216332</v>
+        <v>1.032758329970881</v>
       </c>
       <c r="L15">
-        <v>1.001718136577046</v>
+        <v>1.026959087475756</v>
       </c>
       <c r="M15">
-        <v>1.001051744824203</v>
+        <v>1.027553337926342</v>
       </c>
       <c r="N15">
-        <v>1.00304234812455</v>
+        <v>1.030528522073202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9772004999227009</v>
+        <v>1.004400610375465</v>
       </c>
       <c r="D16">
-        <v>0.999490398540627</v>
+        <v>1.021742197193689</v>
       </c>
       <c r="E16">
-        <v>0.9919259245216231</v>
+        <v>1.016328798861295</v>
       </c>
       <c r="F16">
-        <v>0.9918295676436988</v>
+        <v>1.017435892811074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034023660927477</v>
+        <v>1.044716308708451</v>
       </c>
       <c r="J16">
-        <v>1.006269053118287</v>
+        <v>1.032364483085579</v>
       </c>
       <c r="K16">
-        <v>1.013832155278851</v>
+        <v>1.035694122166502</v>
       </c>
       <c r="L16">
-        <v>1.006405393877181</v>
+        <v>1.030373529502271</v>
       </c>
       <c r="M16">
-        <v>1.006310808846111</v>
+        <v>1.031461539901502</v>
       </c>
       <c r="N16">
-        <v>1.007698070594389</v>
+        <v>1.033830559065422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9809043009456103</v>
+        <v>1.007211606283071</v>
       </c>
       <c r="D17">
-        <v>1.002292945637902</v>
+        <v>1.023900432310992</v>
       </c>
       <c r="E17">
-        <v>0.9951843974516659</v>
+        <v>1.018791303865301</v>
       </c>
       <c r="F17">
-        <v>0.9954460053371443</v>
+        <v>1.020208242745949</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035169831474156</v>
+        <v>1.045753707270422</v>
       </c>
       <c r="J17">
-        <v>1.009116606469512</v>
+        <v>1.034395446370039</v>
       </c>
       <c r="K17">
-        <v>1.016260890302544</v>
+        <v>1.037501987703293</v>
       </c>
       <c r="L17">
-        <v>1.009277391774362</v>
+        <v>1.032477684815451</v>
       </c>
       <c r="M17">
-        <v>1.009534356527936</v>
+        <v>1.033870988959864</v>
       </c>
       <c r="N17">
-        <v>1.010549667797991</v>
+        <v>1.0358644065507</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9830343457269278</v>
+        <v>1.008833702225943</v>
       </c>
       <c r="D18">
-        <v>1.003905483232913</v>
+        <v>1.025146430199472</v>
       </c>
       <c r="E18">
-        <v>0.997059524738628</v>
+        <v>1.020213218739136</v>
       </c>
       <c r="F18">
-        <v>0.9975272476343159</v>
+        <v>1.021809179546761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035827657249706</v>
+        <v>1.046351247737012</v>
       </c>
       <c r="J18">
-        <v>1.010753980179251</v>
+        <v>1.03556708728094</v>
       </c>
       <c r="K18">
-        <v>1.017657141762449</v>
+        <v>1.038544775553547</v>
       </c>
       <c r="L18">
-        <v>1.010929208387564</v>
+        <v>1.033691934613558</v>
       </c>
       <c r="M18">
-        <v>1.011388800952068</v>
+        <v>1.035261785334809</v>
       </c>
       <c r="N18">
-        <v>1.012189366766207</v>
+        <v>1.037037711326084</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837556385881475</v>
+        <v>1.009383888376544</v>
       </c>
       <c r="D19">
-        <v>1.004451662049981</v>
+        <v>1.025569145205938</v>
       </c>
       <c r="E19">
-        <v>0.997694691588436</v>
+        <v>1.020695659610735</v>
       </c>
       <c r="F19">
-        <v>0.9982322545205371</v>
+        <v>1.022352380386068</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036050185543574</v>
+        <v>1.046553735106835</v>
       </c>
       <c r="J19">
-        <v>1.011308394934461</v>
+        <v>1.035964428096309</v>
       </c>
       <c r="K19">
-        <v>1.018129860435604</v>
+        <v>1.038898392024129</v>
       </c>
       <c r="L19">
-        <v>1.011488578856183</v>
+        <v>1.03410379071504</v>
       </c>
       <c r="M19">
-        <v>1.012016863791271</v>
+        <v>1.035733586760781</v>
       </c>
       <c r="N19">
-        <v>1.012744568853962</v>
+        <v>1.037435616410986</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9805100893308659</v>
+        <v>1.006911839452356</v>
       </c>
       <c r="D20">
-        <v>1.001994573242523</v>
+        <v>1.023670215257082</v>
       </c>
       <c r="E20">
-        <v>0.9948374590032276</v>
+        <v>1.018528604432756</v>
       </c>
       <c r="F20">
-        <v>0.9950609413828129</v>
+        <v>1.01991247805383</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035047977334545</v>
+        <v>1.045643191417263</v>
       </c>
       <c r="J20">
-        <v>1.008813553534144</v>
+        <v>1.034178896997567</v>
       </c>
       <c r="K20">
-        <v>1.016002440920599</v>
+        <v>1.037309241360457</v>
       </c>
       <c r="L20">
-        <v>1.00897169698366</v>
+        <v>1.032253291385408</v>
       </c>
       <c r="M20">
-        <v>1.009191197733905</v>
+        <v>1.033613999779638</v>
       </c>
       <c r="N20">
-        <v>1.010246184492694</v>
+        <v>1.035647549653281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9695906441112122</v>
+        <v>0.9986642406403579</v>
       </c>
       <c r="D21">
-        <v>0.9937381703073948</v>
+        <v>1.017342009824635</v>
       </c>
       <c r="E21">
-        <v>0.9852393445241037</v>
+        <v>1.011309831561922</v>
       </c>
       <c r="F21">
-        <v>0.9844090616394693</v>
+        <v>1.011786035342141</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031660251280815</v>
+        <v>1.04259230916195</v>
       </c>
       <c r="J21">
-        <v>1.000417180223055</v>
+        <v>1.028217915758283</v>
       </c>
       <c r="K21">
-        <v>1.008839154072527</v>
+        <v>1.032002116068619</v>
       </c>
       <c r="L21">
-        <v>1.000505863990126</v>
+        <v>1.026080057581451</v>
       </c>
       <c r="M21">
-        <v>0.9996919542248409</v>
+        <v>1.026547505888228</v>
       </c>
       <c r="N21">
-        <v>1.001837887368426</v>
+        <v>1.029678103136903</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9624152344921643</v>
+        <v>0.9933053629496457</v>
       </c>
       <c r="D22">
-        <v>0.9883221939859259</v>
+        <v>1.013236591642608</v>
       </c>
       <c r="E22">
-        <v>0.9789448475095212</v>
+        <v>1.006628704987685</v>
       </c>
       <c r="F22">
-        <v>0.9774241540014745</v>
+        <v>1.006517045913529</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029422526060632</v>
+        <v>1.040600339818121</v>
       </c>
       <c r="J22">
-        <v>0.9948985223261106</v>
+        <v>1.02434222870457</v>
       </c>
       <c r="K22">
-        <v>1.004128595256773</v>
+        <v>1.028550311914806</v>
       </c>
       <c r="L22">
-        <v>0.9949452773688878</v>
+        <v>1.022069979824881</v>
       </c>
       <c r="M22">
-        <v>0.9934565130175933</v>
+        <v>1.021960495019298</v>
       </c>
       <c r="N22">
-        <v>0.9963113923442692</v>
+        <v>1.025796912163026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9662503856241023</v>
+        <v>0.9961634340470592</v>
       </c>
       <c r="D23">
-        <v>0.9912159643030358</v>
+        <v>1.015425507934484</v>
       </c>
       <c r="E23">
-        <v>0.9823079054177353</v>
+        <v>1.009124400013901</v>
       </c>
       <c r="F23">
-        <v>0.9811560514525005</v>
+        <v>1.009326099946322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030619590911536</v>
+        <v>1.041663605273517</v>
       </c>
       <c r="J23">
-        <v>0.9978482206851216</v>
+        <v>1.026409473515218</v>
       </c>
       <c r="K23">
-        <v>1.006646567760447</v>
+        <v>1.030391570873674</v>
       </c>
       <c r="L23">
-        <v>0.9979170333225037</v>
+        <v>1.024208566604093</v>
       </c>
       <c r="M23">
-        <v>0.9967885753597707</v>
+        <v>1.024406456155806</v>
       </c>
       <c r="N23">
-        <v>0.9992652796132847</v>
+        <v>1.027867092698421</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.980688309903992</v>
+        <v>1.007047345128395</v>
       </c>
       <c r="D24">
-        <v>1.002129463041001</v>
+        <v>1.023774280075168</v>
       </c>
       <c r="E24">
-        <v>0.9949943039948347</v>
+        <v>1.018647351437495</v>
       </c>
       <c r="F24">
-        <v>0.9952350218919533</v>
+        <v>1.020046171077127</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035103070974085</v>
+        <v>1.045693152066242</v>
       </c>
       <c r="J24">
-        <v>1.008950562620648</v>
+        <v>1.034276786353299</v>
       </c>
       <c r="K24">
-        <v>1.016119285837622</v>
+        <v>1.037396371221732</v>
       </c>
       <c r="L24">
-        <v>1.009109899240572</v>
+        <v>1.032354725386949</v>
       </c>
       <c r="M24">
-        <v>1.009346335822013</v>
+        <v>1.033730167097342</v>
       </c>
       <c r="N24">
-        <v>1.010383388147817</v>
+        <v>1.035745578023126</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.996265732960774</v>
+        <v>1.01899661057601</v>
       </c>
       <c r="D25">
-        <v>1.013934091160069</v>
+        <v>1.03296210584565</v>
       </c>
       <c r="E25">
-        <v>1.008726703313679</v>
+        <v>1.02913727549818</v>
       </c>
       <c r="F25">
-        <v>1.010479540135218</v>
+        <v>1.031859079866408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039889342883098</v>
+        <v>1.050074994240022</v>
       </c>
       <c r="J25">
-        <v>1.020919426954892</v>
+        <v>1.042901150060117</v>
       </c>
       <c r="K25">
-        <v>1.026319881758029</v>
+        <v>1.045069403269738</v>
       </c>
       <c r="L25">
-        <v>1.021191042251076</v>
+        <v>1.041299505069504</v>
       </c>
       <c r="M25">
-        <v>1.022917324108707</v>
+        <v>1.043982166025405</v>
       </c>
       <c r="N25">
-        <v>1.022369249642263</v>
+        <v>1.044382189315636</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028048481433989</v>
+        <v>1.015207535520683</v>
       </c>
       <c r="D2">
-        <v>1.039935456727558</v>
+        <v>1.028196913978193</v>
       </c>
       <c r="E2">
-        <v>1.037108232882714</v>
+        <v>1.02746730486182</v>
       </c>
       <c r="F2">
-        <v>1.040840016335458</v>
+        <v>1.033849011825119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053358454287962</v>
+        <v>1.047238521478892</v>
       </c>
       <c r="J2">
-        <v>1.049421451267362</v>
+        <v>1.036942714692691</v>
       </c>
       <c r="K2">
-        <v>1.050865111094781</v>
+        <v>1.039276915280927</v>
       </c>
       <c r="L2">
-        <v>1.048073709661085</v>
+        <v>1.038556792951126</v>
       </c>
       <c r="M2">
-        <v>1.051758260726181</v>
+        <v>1.044856088501526</v>
       </c>
       <c r="N2">
-        <v>1.050911750098484</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015883669100401</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044072967040392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034373361924713</v>
+        <v>1.019302576463093</v>
       </c>
       <c r="D3">
-        <v>1.044813919446375</v>
+        <v>1.031080609574242</v>
       </c>
       <c r="E3">
-        <v>1.042690648382643</v>
+        <v>1.030717939671287</v>
       </c>
       <c r="F3">
-        <v>1.047133020600364</v>
+        <v>1.037002118576893</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055630965998857</v>
+        <v>1.048337377628848</v>
       </c>
       <c r="J3">
-        <v>1.053968901448169</v>
+        <v>1.039280516089867</v>
       </c>
       <c r="K3">
-        <v>1.054903793384053</v>
+        <v>1.041330672575649</v>
       </c>
       <c r="L3">
-        <v>1.052804948073798</v>
+        <v>1.040972304627025</v>
       </c>
       <c r="M3">
-        <v>1.057196355632958</v>
+        <v>1.04718246786049</v>
       </c>
       <c r="N3">
-        <v>1.055465658180148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016691628609034</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045914128940336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038360238152656</v>
+        <v>1.021901418048097</v>
       </c>
       <c r="D4">
-        <v>1.047891256473311</v>
+        <v>1.032913156302207</v>
       </c>
       <c r="E4">
-        <v>1.046215030277429</v>
+        <v>1.032786852281294</v>
       </c>
       <c r="F4">
-        <v>1.051107693895408</v>
+        <v>1.03901184879943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057053055777379</v>
+        <v>1.049025933382756</v>
       </c>
       <c r="J4">
-        <v>1.056831104183707</v>
+        <v>1.040761004108664</v>
       </c>
       <c r="K4">
-        <v>1.057444094397698</v>
+        <v>1.042629936371313</v>
       </c>
       <c r="L4">
-        <v>1.055785929209967</v>
+        <v>1.042505039676872</v>
       </c>
       <c r="M4">
-        <v>1.060626072896485</v>
+        <v>1.048661175165493</v>
       </c>
       <c r="N4">
-        <v>1.05833192557187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017202907764555</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047084416993163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040012210705227</v>
+        <v>1.022982156844036</v>
       </c>
       <c r="D5">
-        <v>1.049166814907633</v>
+        <v>1.033675773262973</v>
       </c>
       <c r="E5">
-        <v>1.047676634953416</v>
+        <v>1.033648609923606</v>
       </c>
       <c r="F5">
-        <v>1.05275646407389</v>
+        <v>1.039849645341365</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057639765165464</v>
+        <v>1.04931012191326</v>
       </c>
       <c r="J5">
-        <v>1.05801599340763</v>
+        <v>1.041375881135646</v>
       </c>
       <c r="K5">
-        <v>1.058495306121382</v>
+        <v>1.043169214986547</v>
       </c>
       <c r="L5">
-        <v>1.057020734571477</v>
+        <v>1.043142346211143</v>
       </c>
       <c r="M5">
-        <v>1.062047578149346</v>
+        <v>1.049276625571714</v>
       </c>
       <c r="N5">
-        <v>1.0595184974744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017415155078583</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047571500167708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040288203823201</v>
+        <v>1.023162935505798</v>
       </c>
       <c r="D6">
-        <v>1.04937994568901</v>
+        <v>1.033803369382929</v>
       </c>
       <c r="E6">
-        <v>1.047920896522718</v>
+        <v>1.033792839659435</v>
       </c>
       <c r="F6">
-        <v>1.053032030100104</v>
+        <v>1.039989905230041</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057737635522069</v>
+        <v>1.049357531626683</v>
       </c>
       <c r="J6">
-        <v>1.058213887117802</v>
+        <v>1.041478686215854</v>
       </c>
       <c r="K6">
-        <v>1.058670848800075</v>
+        <v>1.043259360483547</v>
       </c>
       <c r="L6">
-        <v>1.057227008807154</v>
+        <v>1.043248944421592</v>
       </c>
       <c r="M6">
-        <v>1.062285089217614</v>
+        <v>1.049379603857756</v>
       </c>
       <c r="N6">
-        <v>1.059716672216339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017450636158115</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047652999782747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038382405094823</v>
+        <v>1.021915904866596</v>
       </c>
       <c r="D7">
-        <v>1.047908370806325</v>
+        <v>1.032923376747614</v>
       </c>
       <c r="E7">
-        <v>1.046234637831388</v>
+        <v>1.032798398306806</v>
       </c>
       <c r="F7">
-        <v>1.051129810584401</v>
+        <v>1.039023071070128</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057060938612509</v>
+        <v>1.049029751340906</v>
       </c>
       <c r="J7">
-        <v>1.05684700788195</v>
+        <v>1.040769249422035</v>
       </c>
       <c r="K7">
-        <v>1.057458205532965</v>
+        <v>1.042637169258902</v>
       </c>
       <c r="L7">
-        <v>1.055802499941021</v>
+        <v>1.042513582874394</v>
       </c>
       <c r="M7">
-        <v>1.060645145823563</v>
+        <v>1.048669422972944</v>
       </c>
       <c r="N7">
-        <v>1.058347851855189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017205754327106</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047090944520812</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030208652340819</v>
+        <v>1.016602250281187</v>
       </c>
       <c r="D8">
-        <v>1.041601113417531</v>
+        <v>1.029178516591653</v>
       </c>
       <c r="E8">
-        <v>1.039013628947995</v>
+        <v>1.028573154824656</v>
       </c>
       <c r="F8">
-        <v>1.042987614577601</v>
+        <v>1.034921076424264</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054136754624804</v>
+        <v>1.047614601428527</v>
       </c>
       <c r="J8">
-        <v>1.050975437039668</v>
+        <v>1.037739578211817</v>
       </c>
       <c r="K8">
-        <v>1.052245582017918</v>
+        <v>1.039977235527294</v>
       </c>
       <c r="L8">
-        <v>1.049689847681088</v>
+        <v>1.039379509269163</v>
       </c>
       <c r="M8">
-        <v>1.053615150475557</v>
+        <v>1.045647917177816</v>
       </c>
       <c r="N8">
-        <v>1.052467942708832</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016159148868826</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044699642992081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014936666849761</v>
+        <v>1.006831087216454</v>
       </c>
       <c r="D9">
-        <v>1.029838019595527</v>
+        <v>1.022313937725043</v>
       </c>
       <c r="E9">
-        <v>1.025569052910497</v>
+        <v>1.020852577950589</v>
       </c>
       <c r="F9">
-        <v>1.027840171026834</v>
+        <v>1.027448714016666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048591755090742</v>
+        <v>1.044944003291056</v>
       </c>
       <c r="J9">
-        <v>1.039972778700842</v>
+        <v>1.032144907030186</v>
       </c>
       <c r="K9">
-        <v>1.042464858857185</v>
+        <v>1.03505507112739</v>
       </c>
       <c r="L9">
-        <v>1.038260477306119</v>
+        <v>1.033616159444225</v>
       </c>
       <c r="M9">
-        <v>1.040497150631962</v>
+        <v>1.040111616795728</v>
       </c>
       <c r="N9">
-        <v>1.041449659333142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.014223580922372</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040318044587102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004080521966442</v>
+        <v>1.000110236548574</v>
       </c>
       <c r="D10">
-        <v>1.021496520971827</v>
+        <v>1.017621647438441</v>
       </c>
       <c r="E10">
-        <v>1.016048520817795</v>
+        <v>1.015620092359011</v>
       </c>
       <c r="F10">
-        <v>1.017120362791975</v>
+        <v>1.022449694433632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044598032090411</v>
+        <v>1.043085895741339</v>
       </c>
       <c r="J10">
-        <v>1.032133173189817</v>
+        <v>1.028319481464508</v>
       </c>
       <c r="K10">
-        <v>1.03548820120951</v>
+        <v>1.031679863346513</v>
       </c>
       <c r="L10">
-        <v>1.030133936379857</v>
+        <v>1.029712934421389</v>
       </c>
       <c r="M10">
-        <v>1.031187234190948</v>
+        <v>1.03642510749301</v>
       </c>
       <c r="N10">
-        <v>1.033598920683076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012905999604844</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03745191550684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9991965844209304</v>
+        <v>0.9978923125117246</v>
       </c>
       <c r="D11">
-        <v>1.017750115827078</v>
+        <v>1.016175895961166</v>
       </c>
       <c r="E11">
-        <v>1.011775247044292</v>
+        <v>1.014246194837676</v>
       </c>
       <c r="F11">
-        <v>1.012309924254858</v>
+        <v>1.021537339513142</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042789794375708</v>
+        <v>1.042647167940795</v>
       </c>
       <c r="J11">
-        <v>1.028602824657925</v>
+        <v>1.027353037379</v>
       </c>
       <c r="K11">
-        <v>1.032344878529518</v>
+        <v>1.03079907265304</v>
       </c>
       <c r="L11">
-        <v>1.026478464278009</v>
+        <v>1.028904358357987</v>
       </c>
       <c r="M11">
-        <v>1.027003368244459</v>
+        <v>1.036064210247232</v>
       </c>
       <c r="N11">
-        <v>1.030063558651332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012638710649926</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037602955008334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9973527426514137</v>
+        <v>0.9973626457931143</v>
       </c>
       <c r="D12">
-        <v>1.01633680030988</v>
+        <v>1.015886094333735</v>
       </c>
       <c r="E12">
-        <v>1.010163527471805</v>
+        <v>1.014093756086939</v>
       </c>
       <c r="F12">
-        <v>1.010495735099235</v>
+        <v>1.021679779510441</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042105466412899</v>
+        <v>1.042639360100516</v>
       </c>
       <c r="J12">
-        <v>1.02726956326578</v>
+        <v>1.027279044115865</v>
       </c>
       <c r="K12">
-        <v>1.031157566031859</v>
+        <v>1.030715141859057</v>
       </c>
       <c r="L12">
-        <v>1.025098566801578</v>
+        <v>1.02895583310405</v>
       </c>
       <c r="M12">
-        <v>1.025424578541799</v>
+        <v>1.036403091106375</v>
       </c>
       <c r="N12">
-        <v>1.028728403875083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012667941972684</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03819759188543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.997749636457039</v>
+        <v>0.9980965290308951</v>
       </c>
       <c r="D13">
-        <v>1.016640971104507</v>
+        <v>1.016464715883871</v>
       </c>
       <c r="E13">
-        <v>1.01051038312104</v>
+        <v>1.014871687582089</v>
       </c>
       <c r="F13">
-        <v>1.010886158776903</v>
+        <v>1.022655213485187</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042252844272483</v>
+        <v>1.042965641847586</v>
       </c>
       <c r="J13">
-        <v>1.027556571349217</v>
+        <v>1.027888749602677</v>
       </c>
       <c r="K13">
-        <v>1.031413165318844</v>
+        <v>1.031240134336387</v>
       </c>
       <c r="L13">
-        <v>1.025395586177604</v>
+        <v>1.029676313494666</v>
       </c>
       <c r="M13">
-        <v>1.025764383503174</v>
+        <v>1.037318254686892</v>
       </c>
       <c r="N13">
-        <v>1.029015819542919</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012927577294457</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039197920623737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9990447920098049</v>
+        <v>0.9991774724757141</v>
       </c>
       <c r="D14">
-        <v>1.017633743503167</v>
+        <v>1.017259058763346</v>
       </c>
       <c r="E14">
-        <v>1.011642531213947</v>
+        <v>1.015831418625637</v>
       </c>
       <c r="F14">
-        <v>1.012160533847872</v>
+        <v>1.023709294905065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042733491020635</v>
+        <v>1.043342566558519</v>
       </c>
       <c r="J14">
-        <v>1.028493073750745</v>
+        <v>1.02862021266034</v>
       </c>
       <c r="K14">
-        <v>1.032247145996526</v>
+        <v>1.031879224619399</v>
       </c>
       <c r="L14">
-        <v>1.026364861842368</v>
+        <v>1.030477414010088</v>
       </c>
       <c r="M14">
-        <v>1.026873380195115</v>
+        <v>1.038213925469893</v>
       </c>
       <c r="N14">
-        <v>1.029953651885276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013211698244568</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040079231854036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9998387703593207</v>
+        <v>0.9997193681158936</v>
       </c>
       <c r="D15">
-        <v>1.018242494933968</v>
+        <v>1.017644952569003</v>
       </c>
       <c r="E15">
-        <v>1.012336790783872</v>
+        <v>1.016276169737949</v>
       </c>
       <c r="F15">
-        <v>1.012942026023469</v>
+        <v>1.024163968190517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043027929052964</v>
+        <v>1.04350957319935</v>
       </c>
       <c r="J15">
-        <v>1.029067128714777</v>
+        <v>1.028952666779796</v>
       </c>
       <c r="K15">
-        <v>1.032758329970881</v>
+        <v>1.032171486470365</v>
       </c>
       <c r="L15">
-        <v>1.026959087475756</v>
+        <v>1.030827273012995</v>
       </c>
       <c r="M15">
-        <v>1.027553337926342</v>
+        <v>1.038574655487419</v>
       </c>
       <c r="N15">
-        <v>1.030528522073202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01333300729525</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040401879072404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.004400610375465</v>
+        <v>1.002415470033059</v>
       </c>
       <c r="D16">
-        <v>1.021742197193689</v>
+        <v>1.019510552693883</v>
       </c>
       <c r="E16">
-        <v>1.016328798861295</v>
+        <v>1.018338199176527</v>
       </c>
       <c r="F16">
-        <v>1.017435892811074</v>
+        <v>1.026119664428189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044716308708451</v>
+        <v>1.044241025334324</v>
       </c>
       <c r="J16">
-        <v>1.032364483085579</v>
+        <v>1.03045710002664</v>
       </c>
       <c r="K16">
-        <v>1.035694122166502</v>
+        <v>1.033500582019571</v>
       </c>
       <c r="L16">
-        <v>1.030373529502271</v>
+        <v>1.032348332417316</v>
       </c>
       <c r="M16">
-        <v>1.031461539901502</v>
+        <v>1.039997466961618</v>
       </c>
       <c r="N16">
-        <v>1.033830559065422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013840998612757</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041487769092545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007211606283071</v>
+        <v>1.00391940753283</v>
       </c>
       <c r="D17">
-        <v>1.023900432310992</v>
+        <v>1.020527708461736</v>
       </c>
       <c r="E17">
-        <v>1.018791303865301</v>
+        <v>1.019419056622085</v>
       </c>
       <c r="F17">
-        <v>1.020208242745949</v>
+        <v>1.027063844754463</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045753707270422</v>
+        <v>1.044602953425703</v>
       </c>
       <c r="J17">
-        <v>1.034395446370039</v>
+        <v>1.031227797455611</v>
       </c>
       <c r="K17">
-        <v>1.037501987703293</v>
+        <v>1.034185137620646</v>
       </c>
       <c r="L17">
-        <v>1.032477684815451</v>
+        <v>1.033094956126121</v>
       </c>
       <c r="M17">
-        <v>1.033870988959864</v>
+        <v>1.040613422642964</v>
       </c>
       <c r="N17">
-        <v>1.0358644065507</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.01408156866055</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041845684806585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008833702225943</v>
+        <v>1.004525672937504</v>
       </c>
       <c r="D18">
-        <v>1.025146430199472</v>
+        <v>1.020896277428081</v>
       </c>
       <c r="E18">
-        <v>1.020213218739136</v>
+        <v>1.019724748676405</v>
       </c>
       <c r="F18">
-        <v>1.021809179546761</v>
+        <v>1.027168334830889</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046351247737012</v>
+        <v>1.044672412191361</v>
       </c>
       <c r="J18">
-        <v>1.03556708728094</v>
+        <v>1.031418789377974</v>
       </c>
       <c r="K18">
-        <v>1.038544775553547</v>
+        <v>1.034363805545109</v>
       </c>
       <c r="L18">
-        <v>1.033691934613558</v>
+        <v>1.033211476978075</v>
       </c>
       <c r="M18">
-        <v>1.035261785334809</v>
+        <v>1.04053402608258</v>
       </c>
       <c r="N18">
-        <v>1.037037711326084</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014106404584962</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041545392974355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009383888376544</v>
+        <v>1.004319377247916</v>
       </c>
       <c r="D19">
-        <v>1.025569145205938</v>
+        <v>1.020679294911701</v>
       </c>
       <c r="E19">
-        <v>1.020695659610735</v>
+        <v>1.019323318059529</v>
       </c>
       <c r="F19">
-        <v>1.022352380386068</v>
+        <v>1.026501024173524</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046553735106835</v>
+        <v>1.044480829200723</v>
       </c>
       <c r="J19">
-        <v>1.035964428096309</v>
+        <v>1.031086511771095</v>
       </c>
       <c r="K19">
-        <v>1.038898392024129</v>
+        <v>1.034087692532386</v>
       </c>
       <c r="L19">
-        <v>1.03410379071504</v>
+        <v>1.032753837395737</v>
       </c>
       <c r="M19">
-        <v>1.035733586760781</v>
+        <v>1.039815296625114</v>
       </c>
       <c r="N19">
-        <v>1.037435616410986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013940045973696</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.040651753068554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006911839452356</v>
+        <v>1.001856121404914</v>
       </c>
       <c r="D20">
-        <v>1.023670215257082</v>
+        <v>1.01883959003529</v>
       </c>
       <c r="E20">
-        <v>1.018528604432756</v>
+        <v>1.016978542247143</v>
       </c>
       <c r="F20">
-        <v>1.01991247805383</v>
+        <v>1.023749020086996</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045643191417263</v>
+        <v>1.043572587543879</v>
       </c>
       <c r="J20">
-        <v>1.034178896997567</v>
+        <v>1.02931567971477</v>
       </c>
       <c r="K20">
-        <v>1.037309241360457</v>
+        <v>1.032559064206718</v>
       </c>
       <c r="L20">
-        <v>1.032253291385408</v>
+        <v>1.030729272863872</v>
       </c>
       <c r="M20">
-        <v>1.033613999779638</v>
+        <v>1.037386741894638</v>
       </c>
       <c r="N20">
-        <v>1.035647549653281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013249530207337</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038202386723334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9986642406403579</v>
+        <v>0.9966594707901474</v>
       </c>
       <c r="D21">
-        <v>1.017342009824635</v>
+        <v>1.015200596441533</v>
       </c>
       <c r="E21">
-        <v>1.011309831561922</v>
+        <v>1.012879800072844</v>
       </c>
       <c r="F21">
-        <v>1.011786035342141</v>
+        <v>1.019760260861869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04259230916195</v>
+        <v>1.042087185219829</v>
       </c>
       <c r="J21">
-        <v>1.028217915758283</v>
+        <v>1.026297525163365</v>
       </c>
       <c r="K21">
-        <v>1.032002116068619</v>
+        <v>1.029899600050204</v>
       </c>
       <c r="L21">
-        <v>1.026080057581451</v>
+        <v>1.027621201274172</v>
       </c>
       <c r="M21">
-        <v>1.026547505888228</v>
+        <v>1.034376696424747</v>
       </c>
       <c r="N21">
-        <v>1.029678103136903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01219773144989</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035779224103541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933053629496457</v>
+        <v>0.9933671158003513</v>
       </c>
       <c r="D22">
-        <v>1.013236591642608</v>
+        <v>1.012905749353193</v>
       </c>
       <c r="E22">
-        <v>1.006628704987685</v>
+        <v>1.010312697990759</v>
       </c>
       <c r="F22">
-        <v>1.006517045913529</v>
+        <v>1.017290245660678</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040600339818121</v>
+        <v>1.041148577633213</v>
       </c>
       <c r="J22">
-        <v>1.02434222870457</v>
+        <v>1.024401218798304</v>
       </c>
       <c r="K22">
-        <v>1.028550311914806</v>
+        <v>1.028225804199416</v>
       </c>
       <c r="L22">
-        <v>1.022069979824881</v>
+        <v>1.025682589714309</v>
       </c>
       <c r="M22">
-        <v>1.021960495019298</v>
+        <v>1.032526788670267</v>
       </c>
       <c r="N22">
-        <v>1.025796912163026</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011540307292853</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034315134961137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9961634340470592</v>
+        <v>0.9951193946686183</v>
       </c>
       <c r="D23">
-        <v>1.015425507934484</v>
+        <v>1.01412665090819</v>
       </c>
       <c r="E23">
-        <v>1.009124400013901</v>
+        <v>1.01167816609847</v>
       </c>
       <c r="F23">
-        <v>1.009326099946322</v>
+        <v>1.018603749809579</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041663605273517</v>
+        <v>1.041648899729078</v>
       </c>
       <c r="J23">
-        <v>1.026409473515218</v>
+        <v>1.025410663467053</v>
       </c>
       <c r="K23">
-        <v>1.030391570873674</v>
+        <v>1.029116902033875</v>
       </c>
       <c r="L23">
-        <v>1.024208566604093</v>
+        <v>1.026714235112411</v>
       </c>
       <c r="M23">
-        <v>1.024406456155806</v>
+        <v>1.033510964424706</v>
       </c>
       <c r="N23">
-        <v>1.027867092698421</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011890290336444</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035094050413222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007047345128395</v>
+        <v>1.001867580282215</v>
       </c>
       <c r="D24">
-        <v>1.023774280075168</v>
+        <v>1.018838462279507</v>
       </c>
       <c r="E24">
-        <v>1.018647351437495</v>
+        <v>1.016954071345266</v>
       </c>
       <c r="F24">
-        <v>1.020046171077127</v>
+        <v>1.023685885278477</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045693152066242</v>
+        <v>1.043558611480965</v>
       </c>
       <c r="J24">
-        <v>1.034276786353299</v>
+        <v>1.02929392828381</v>
       </c>
       <c r="K24">
-        <v>1.037396371221732</v>
+        <v>1.032542637388328</v>
       </c>
       <c r="L24">
-        <v>1.032354725386949</v>
+        <v>1.03068985537983</v>
       </c>
       <c r="M24">
-        <v>1.033730167097342</v>
+        <v>1.037309437495318</v>
       </c>
       <c r="N24">
-        <v>1.035745578023126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013236139498052</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038100303568249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.01899661057601</v>
+        <v>1.009408110232235</v>
       </c>
       <c r="D25">
-        <v>1.03296210584565</v>
+        <v>1.024121524688391</v>
       </c>
       <c r="E25">
-        <v>1.02913727549818</v>
+        <v>1.02288277931242</v>
       </c>
       <c r="F25">
-        <v>1.031859079866408</v>
+        <v>1.029410924373835</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050074994240022</v>
+        <v>1.04565608405731</v>
       </c>
       <c r="J25">
-        <v>1.042901150060117</v>
+        <v>1.033622949850391</v>
       </c>
       <c r="K25">
-        <v>1.045069403269738</v>
+        <v>1.036356579319486</v>
       </c>
       <c r="L25">
-        <v>1.041299505069504</v>
+        <v>1.035135959208536</v>
       </c>
       <c r="M25">
-        <v>1.043982166025405</v>
+        <v>1.041569206628206</v>
       </c>
       <c r="N25">
-        <v>1.044382189315636</v>
+        <v>1.014735240636808</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041471628579814</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015207535520683</v>
+        <v>1.014512771819829</v>
       </c>
       <c r="D2">
-        <v>1.028196913978193</v>
+        <v>1.02700577088809</v>
       </c>
       <c r="E2">
-        <v>1.02746730486182</v>
+        <v>1.026927736628139</v>
       </c>
       <c r="F2">
-        <v>1.033849011825119</v>
+        <v>1.033408921405207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047238521478892</v>
+        <v>1.046729860052</v>
       </c>
       <c r="J2">
-        <v>1.036942714692691</v>
+        <v>1.03626790668281</v>
       </c>
       <c r="K2">
-        <v>1.039276915280927</v>
+        <v>1.038101268817101</v>
       </c>
       <c r="L2">
-        <v>1.038556792951126</v>
+        <v>1.038024251344662</v>
       </c>
       <c r="M2">
-        <v>1.044856088501526</v>
+        <v>1.044421640423934</v>
       </c>
       <c r="N2">
-        <v>1.015883669100401</v>
+        <v>1.016585004489714</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044072967040392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04372913212824</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022127760223614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,93 +495,111 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019302576463093</v>
+        <v>1.018372583873337</v>
       </c>
       <c r="D3">
-        <v>1.031080609574242</v>
+        <v>1.029597534434665</v>
       </c>
       <c r="E3">
-        <v>1.030717939671287</v>
+        <v>1.029985478769198</v>
       </c>
       <c r="F3">
-        <v>1.037002118576893</v>
+        <v>1.036407502950742</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048337377628848</v>
+        <v>1.047680026380402</v>
       </c>
       <c r="J3">
-        <v>1.039280516089867</v>
+        <v>1.038374623062782</v>
       </c>
       <c r="K3">
-        <v>1.041330672575649</v>
+        <v>1.03986521325395</v>
       </c>
       <c r="L3">
-        <v>1.040972304627025</v>
+        <v>1.040248543552364</v>
       </c>
       <c r="M3">
-        <v>1.04718246786049</v>
+        <v>1.046594808104314</v>
       </c>
       <c r="N3">
-        <v>1.016691628609034</v>
+        <v>1.017162311533858</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045914128940336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04544903895682</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022503675515836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.021901418048097</v>
+        <v>1.020823977098834</v>
       </c>
       <c r="D4">
-        <v>1.032913156302207</v>
+        <v>1.031246113418295</v>
       </c>
       <c r="E4">
-        <v>1.032786852281294</v>
+        <v>1.031933388172633</v>
       </c>
       <c r="F4">
-        <v>1.03901184879943</v>
+        <v>1.038320369811382</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049025933382756</v>
+        <v>1.048274852307314</v>
       </c>
       <c r="J4">
-        <v>1.040761004108664</v>
+        <v>1.039709597513775</v>
       </c>
       <c r="K4">
-        <v>1.042629936371313</v>
+        <v>1.040981502459136</v>
       </c>
       <c r="L4">
-        <v>1.042505039676872</v>
+        <v>1.041661096294887</v>
       </c>
       <c r="M4">
-        <v>1.048661175165493</v>
+        <v>1.047977295243866</v>
       </c>
       <c r="N4">
-        <v>1.017202907764555</v>
+        <v>1.017527940614996</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047084416993163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046543176574958</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022738944822411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022982156844036</v>
+        <v>1.02184381339016</v>
       </c>
       <c r="D5">
-        <v>1.033675773262973</v>
+        <v>1.031932524500133</v>
       </c>
       <c r="E5">
-        <v>1.033648609923606</v>
+        <v>1.032745149023379</v>
       </c>
       <c r="F5">
-        <v>1.039849645341365</v>
+        <v>1.039118159519442</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04931012191326</v>
+        <v>1.04852020880995</v>
       </c>
       <c r="J5">
-        <v>1.041375881135646</v>
+        <v>1.040264223511762</v>
       </c>
       <c r="K5">
-        <v>1.043169214986547</v>
+        <v>1.041444908894316</v>
       </c>
       <c r="L5">
-        <v>1.043142346211143</v>
+        <v>1.042248693429588</v>
       </c>
       <c r="M5">
-        <v>1.049276625571714</v>
+        <v>1.048552963644583</v>
       </c>
       <c r="N5">
-        <v>1.017415155078583</v>
+        <v>1.017679794473732</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047571500167708</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046998775597805</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022835975930155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023162935505798</v>
+        <v>1.022014428330129</v>
       </c>
       <c r="D6">
-        <v>1.033803369382929</v>
+        <v>1.032047390516633</v>
       </c>
       <c r="E6">
-        <v>1.033792839659435</v>
+        <v>1.032881034160988</v>
       </c>
       <c r="F6">
-        <v>1.039989905230041</v>
+        <v>1.039251743043196</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049357531626683</v>
+        <v>1.048561131369703</v>
       </c>
       <c r="J6">
-        <v>1.041478686215854</v>
+        <v>1.040356965227895</v>
       </c>
       <c r="K6">
-        <v>1.043259360483547</v>
+        <v>1.041522375590141</v>
       </c>
       <c r="L6">
-        <v>1.043248944421592</v>
+        <v>1.04234699205034</v>
       </c>
       <c r="M6">
-        <v>1.049379603857756</v>
+        <v>1.048649300752705</v>
       </c>
       <c r="N6">
-        <v>1.017450636158115</v>
+        <v>1.017705183697745</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047652999782747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047075019276366</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02285215878759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021915904866596</v>
+        <v>1.020847124454443</v>
       </c>
       <c r="D7">
-        <v>1.032923376747614</v>
+        <v>1.031262892261588</v>
       </c>
       <c r="E7">
-        <v>1.032798398306806</v>
+        <v>1.031952323413594</v>
       </c>
       <c r="F7">
-        <v>1.039023071070128</v>
+        <v>1.038337447677888</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049029751340906</v>
+        <v>1.048283072036126</v>
       </c>
       <c r="J7">
-        <v>1.040769249422035</v>
+        <v>1.039726283423325</v>
       </c>
       <c r="K7">
-        <v>1.042637169258902</v>
+        <v>1.040995213760462</v>
       </c>
       <c r="L7">
-        <v>1.042513582874394</v>
+        <v>1.041676942790377</v>
       </c>
       <c r="M7">
-        <v>1.048669422972944</v>
+        <v>1.047991331537895</v>
       </c>
       <c r="N7">
-        <v>1.017205754327106</v>
+        <v>1.017558657741613</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047090944520812</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046554285268372</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022742613298448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016602250281187</v>
+        <v>1.015856289188493</v>
       </c>
       <c r="D8">
-        <v>1.029178516591653</v>
+        <v>1.027911220892218</v>
       </c>
       <c r="E8">
-        <v>1.028573154824656</v>
+        <v>1.027992586652901</v>
       </c>
       <c r="F8">
-        <v>1.034921076424264</v>
+        <v>1.034447914017679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.047614601428527</v>
+        <v>1.047070469446414</v>
       </c>
       <c r="J8">
-        <v>1.037739578211817</v>
+        <v>1.037014323658253</v>
       </c>
       <c r="K8">
-        <v>1.039977235527294</v>
+        <v>1.038725937244318</v>
       </c>
       <c r="L8">
-        <v>1.039379509269163</v>
+        <v>1.038806274424224</v>
       </c>
       <c r="M8">
-        <v>1.045647917177816</v>
+        <v>1.045180639639968</v>
       </c>
       <c r="N8">
-        <v>1.016159148868826</v>
+        <v>1.016869187350654</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044699642992081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044329826195763</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022263869573709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006831087216454</v>
+        <v>1.006662740325417</v>
       </c>
       <c r="D9">
-        <v>1.022313937725043</v>
+        <v>1.021755217786204</v>
       </c>
       <c r="E9">
-        <v>1.020852577950589</v>
+        <v>1.020745144519392</v>
       </c>
       <c r="F9">
-        <v>1.027448714016666</v>
+        <v>1.02735501441431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044944003291056</v>
+        <v>1.044761097139947</v>
       </c>
       <c r="J9">
-        <v>1.032144907030186</v>
+        <v>1.031982394167074</v>
       </c>
       <c r="K9">
-        <v>1.03505507112739</v>
+        <v>1.034504924065087</v>
       </c>
       <c r="L9">
-        <v>1.033616159444225</v>
+        <v>1.033510379546092</v>
       </c>
       <c r="M9">
-        <v>1.040111616795728</v>
+        <v>1.040019335824107</v>
       </c>
       <c r="N9">
-        <v>1.014223580922372</v>
+        <v>1.015499131511019</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040318044587102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040245010363178</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021350091185611</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000110236548574</v>
+        <v>1.000390428431808</v>
       </c>
       <c r="D10">
-        <v>1.017621647438441</v>
+        <v>1.017589157635604</v>
       </c>
       <c r="E10">
-        <v>1.015620092359011</v>
+        <v>1.015880287514845</v>
       </c>
       <c r="F10">
-        <v>1.022449694433632</v>
+        <v>1.022651078083339</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043085895741339</v>
+        <v>1.04317532467489</v>
       </c>
       <c r="J10">
-        <v>1.028319481464508</v>
+        <v>1.028588564462854</v>
       </c>
       <c r="K10">
-        <v>1.031679863346513</v>
+        <v>1.031647934198461</v>
       </c>
       <c r="L10">
-        <v>1.029712934421389</v>
+        <v>1.029968618314151</v>
       </c>
       <c r="M10">
-        <v>1.03642510749301</v>
+        <v>1.036623059272784</v>
       </c>
       <c r="N10">
-        <v>1.012905999604844</v>
+        <v>1.014692131274767</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03745191550684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037608571928168</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020727417229737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9978923125117246</v>
+        <v>0.9983571446833946</v>
       </c>
       <c r="D11">
-        <v>1.016175895961166</v>
+        <v>1.01633751297779</v>
       </c>
       <c r="E11">
-        <v>1.014246194837676</v>
+        <v>1.014656079871777</v>
       </c>
       <c r="F11">
-        <v>1.021537339513142</v>
+        <v>1.021859020376767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042647167940795</v>
+        <v>1.042839624858646</v>
       </c>
       <c r="J11">
-        <v>1.027353037379</v>
+        <v>1.027798428425994</v>
       </c>
       <c r="K11">
-        <v>1.03079907265304</v>
+        <v>1.03095776728032</v>
       </c>
       <c r="L11">
-        <v>1.028904358357987</v>
+        <v>1.029306797409378</v>
       </c>
       <c r="M11">
-        <v>1.036064210247232</v>
+        <v>1.03638015457464</v>
       </c>
       <c r="N11">
-        <v>1.012638710649926</v>
+        <v>1.014754440400423</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037602955008334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037852863193886</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020625521065137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9973626457931143</v>
+        <v>0.9978672102839522</v>
       </c>
       <c r="D12">
-        <v>1.015886094333735</v>
+        <v>1.016085302279789</v>
       </c>
       <c r="E12">
-        <v>1.014093756086939</v>
+        <v>1.014533595280371</v>
       </c>
       <c r="F12">
-        <v>1.021679779510441</v>
+        <v>1.022025917441981</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042639360100516</v>
+        <v>1.042850395981918</v>
       </c>
       <c r="J12">
-        <v>1.027279044115865</v>
+        <v>1.027762108686199</v>
       </c>
       <c r="K12">
-        <v>1.030715141859057</v>
+        <v>1.030910688142997</v>
       </c>
       <c r="L12">
-        <v>1.02895583310405</v>
+        <v>1.029387552788607</v>
       </c>
       <c r="M12">
-        <v>1.036403091106375</v>
+        <v>1.036742961301819</v>
       </c>
       <c r="N12">
-        <v>1.012667941972684</v>
+        <v>1.014885284765236</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03819759188543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038466334055337</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020652246602858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9980965290308951</v>
+        <v>0.9985181373522541</v>
       </c>
       <c r="D13">
-        <v>1.016464715883871</v>
+        <v>1.016572516420946</v>
       </c>
       <c r="E13">
-        <v>1.014871687582089</v>
+        <v>1.01524013935553</v>
       </c>
       <c r="F13">
-        <v>1.022655213485187</v>
+        <v>1.022944856048541</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042965641847586</v>
+        <v>1.043124705109137</v>
       </c>
       <c r="J13">
-        <v>1.027888749602677</v>
+        <v>1.028292493957085</v>
       </c>
       <c r="K13">
-        <v>1.031240134336387</v>
+        <v>1.031345962704482</v>
       </c>
       <c r="L13">
-        <v>1.029676313494666</v>
+        <v>1.030037999256517</v>
       </c>
       <c r="M13">
-        <v>1.037318254686892</v>
+        <v>1.037602682601659</v>
       </c>
       <c r="N13">
-        <v>1.012927577294457</v>
+        <v>1.015040414995319</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039197920623737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039422766971077</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020777684019766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9991774724757141</v>
+        <v>0.9994870055678741</v>
       </c>
       <c r="D14">
-        <v>1.017259058763346</v>
+        <v>1.017246072224331</v>
       </c>
       <c r="E14">
-        <v>1.015831418625637</v>
+        <v>1.016105622245071</v>
       </c>
       <c r="F14">
-        <v>1.023709294905065</v>
+        <v>1.023924001851289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.043342566558519</v>
+        <v>1.043434422770302</v>
       </c>
       <c r="J14">
-        <v>1.02862021266034</v>
+        <v>1.028916825875312</v>
       </c>
       <c r="K14">
-        <v>1.031879224619399</v>
+        <v>1.031866472614068</v>
       </c>
       <c r="L14">
-        <v>1.030477414010088</v>
+        <v>1.030746649286216</v>
       </c>
       <c r="M14">
-        <v>1.038213925469893</v>
+        <v>1.03842481911227</v>
       </c>
       <c r="N14">
-        <v>1.013211698244568</v>
+        <v>1.015160211723938</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040079231854036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040245925323072</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02090957302799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9997193681158936</v>
+        <v>0.9999758611041966</v>
       </c>
       <c r="D15">
-        <v>1.017644952569003</v>
+        <v>1.017575188774043</v>
       </c>
       <c r="E15">
-        <v>1.016276169737949</v>
+        <v>1.016506324228905</v>
       </c>
       <c r="F15">
-        <v>1.024163968190517</v>
+        <v>1.024343543800609</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04350957319935</v>
+        <v>1.043570298143133</v>
       </c>
       <c r="J15">
-        <v>1.028952666779796</v>
+        <v>1.029198549350459</v>
       </c>
       <c r="K15">
-        <v>1.032171486470365</v>
+        <v>1.032102972844609</v>
       </c>
       <c r="L15">
-        <v>1.030827273012995</v>
+        <v>1.031053290264303</v>
       </c>
       <c r="M15">
-        <v>1.038574655487419</v>
+        <v>1.038751066990382</v>
       </c>
       <c r="N15">
-        <v>1.01333300729525</v>
+        <v>1.015199382135524</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040401879072404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040541313690391</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020964705238193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002415470033059</v>
+        <v>1.002434107205267</v>
       </c>
       <c r="D16">
-        <v>1.019510552693883</v>
+        <v>1.019184691406604</v>
       </c>
       <c r="E16">
-        <v>1.018338199176527</v>
+        <v>1.018373374947011</v>
       </c>
       <c r="F16">
-        <v>1.026119664428189</v>
+        <v>1.026143151949651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044241025334324</v>
+        <v>1.044164322685887</v>
       </c>
       <c r="J16">
-        <v>1.03045710002664</v>
+        <v>1.03047500516122</v>
       </c>
       <c r="K16">
-        <v>1.033500582019571</v>
+        <v>1.033180302714194</v>
       </c>
       <c r="L16">
-        <v>1.032348332417316</v>
+        <v>1.032382904111103</v>
       </c>
       <c r="M16">
-        <v>1.039997466961618</v>
+        <v>1.040020558975259</v>
       </c>
       <c r="N16">
-        <v>1.013840998612757</v>
+        <v>1.015331408335334</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041487769092545</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.041506021409973</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021191914878973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00391940753283</v>
+        <v>1.003825148100677</v>
       </c>
       <c r="D17">
-        <v>1.020527708461736</v>
+        <v>1.020077122553953</v>
       </c>
       <c r="E17">
-        <v>1.019419056622085</v>
+        <v>1.019362801626498</v>
       </c>
       <c r="F17">
-        <v>1.027063844754463</v>
+        <v>1.027013843842724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044602953425703</v>
+        <v>1.044461237297749</v>
       </c>
       <c r="J17">
-        <v>1.031227797455611</v>
+        <v>1.031137120992371</v>
       </c>
       <c r="K17">
-        <v>1.034185137620646</v>
+        <v>1.033742052319684</v>
       </c>
       <c r="L17">
-        <v>1.033094956126121</v>
+        <v>1.033039639729054</v>
       </c>
       <c r="M17">
-        <v>1.040613422642964</v>
+        <v>1.040564240086221</v>
       </c>
       <c r="N17">
-        <v>1.01408156866055</v>
+        <v>1.015399650918447</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041845684806585</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.041806806211732</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021298744136907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004525672937504</v>
+        <v>1.004402318182211</v>
       </c>
       <c r="D18">
-        <v>1.020896277428081</v>
+        <v>1.020412420398195</v>
       </c>
       <c r="E18">
-        <v>1.019724748676405</v>
+        <v>1.019646523899369</v>
       </c>
       <c r="F18">
-        <v>1.027168334830889</v>
+        <v>1.027100219487318</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044672412191361</v>
+        <v>1.044515408765116</v>
       </c>
       <c r="J18">
-        <v>1.031418789377974</v>
+        <v>1.031300036724182</v>
       </c>
       <c r="K18">
-        <v>1.034363805545109</v>
+        <v>1.033887871577347</v>
       </c>
       <c r="L18">
-        <v>1.033211476978075</v>
+        <v>1.033134536247561</v>
       </c>
       <c r="M18">
-        <v>1.04053402608258</v>
+        <v>1.040467008128135</v>
       </c>
       <c r="N18">
-        <v>1.014106404584962</v>
+        <v>1.015374144749692</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041545392974355</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.041492404549476</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02130459037583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004319377247916</v>
+        <v>1.004234046224107</v>
       </c>
       <c r="D19">
-        <v>1.020679294911701</v>
+        <v>1.020237840776599</v>
       </c>
       <c r="E19">
-        <v>1.019323318059529</v>
+        <v>1.019278643986876</v>
       </c>
       <c r="F19">
-        <v>1.026501024173524</v>
+        <v>1.026459117893168</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044480829200723</v>
+        <v>1.044348978240951</v>
       </c>
       <c r="J19">
-        <v>1.031086511771095</v>
+        <v>1.031004347330687</v>
       </c>
       <c r="K19">
-        <v>1.034087692532386</v>
+        <v>1.033653432085489</v>
       </c>
       <c r="L19">
-        <v>1.032753837395737</v>
+        <v>1.032709893433329</v>
       </c>
       <c r="M19">
-        <v>1.039815296625114</v>
+        <v>1.039774062988067</v>
       </c>
       <c r="N19">
-        <v>1.013940045973696</v>
+        <v>1.015245496919587</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.040651753068554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.040619140634835</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021219121710967</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001856121404914</v>
+        <v>1.00199183166051</v>
       </c>
       <c r="D20">
-        <v>1.01883959003529</v>
+        <v>1.018647777570964</v>
       </c>
       <c r="E20">
-        <v>1.016978542247143</v>
+        <v>1.017119371404629</v>
       </c>
       <c r="F20">
-        <v>1.023749020086996</v>
+        <v>1.023854811116757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043572587543879</v>
+        <v>1.043576682316673</v>
       </c>
       <c r="J20">
-        <v>1.02931567971477</v>
+        <v>1.02944618687689</v>
       </c>
       <c r="K20">
-        <v>1.032559064206718</v>
+        <v>1.03237046644306</v>
       </c>
       <c r="L20">
-        <v>1.030729272863872</v>
+        <v>1.030867731625719</v>
       </c>
       <c r="M20">
-        <v>1.037386741894638</v>
+        <v>1.037490782387422</v>
       </c>
       <c r="N20">
-        <v>1.013249530207337</v>
+        <v>1.014826326385355</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038202386723334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.03828472396996</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020883806024072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9966594707901474</v>
+        <v>0.9972851064835443</v>
       </c>
       <c r="D21">
-        <v>1.015200596441533</v>
+        <v>1.015533589044489</v>
       </c>
       <c r="E21">
-        <v>1.012879800072844</v>
+        <v>1.013427931666564</v>
       </c>
       <c r="F21">
-        <v>1.019760260861869</v>
+        <v>1.02019171853686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042087185219829</v>
+        <v>1.042378056877929</v>
       </c>
       <c r="J21">
-        <v>1.026297525163365</v>
+        <v>1.026896776459287</v>
       </c>
       <c r="K21">
-        <v>1.029899600050204</v>
+        <v>1.03022653004575</v>
       </c>
       <c r="L21">
-        <v>1.027621201274172</v>
+        <v>1.028159296490248</v>
       </c>
       <c r="M21">
-        <v>1.034376696424747</v>
+        <v>1.034800390779633</v>
       </c>
       <c r="N21">
-        <v>1.01219773144989</v>
+        <v>1.014547967094152</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035779224103541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.036114551913439</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020415226302111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9933671158003513</v>
+        <v>0.9943042646753161</v>
       </c>
       <c r="D22">
-        <v>1.012905749353193</v>
+        <v>1.013572136903497</v>
       </c>
       <c r="E22">
-        <v>1.010312697990759</v>
+        <v>1.011119924136989</v>
       </c>
       <c r="F22">
-        <v>1.017290245660678</v>
+        <v>1.017928914361695</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041148577633213</v>
+        <v>1.041621625172013</v>
       </c>
       <c r="J22">
-        <v>1.024401218798304</v>
+        <v>1.025296500931717</v>
       </c>
       <c r="K22">
-        <v>1.028225804199416</v>
+        <v>1.028879438082438</v>
       </c>
       <c r="L22">
-        <v>1.025682589714309</v>
+        <v>1.026474265577892</v>
       </c>
       <c r="M22">
-        <v>1.032526788670267</v>
+        <v>1.033153371055149</v>
       </c>
       <c r="N22">
-        <v>1.011540307292853</v>
+        <v>1.014372626901981</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034315134961137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.0348110370368</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02012144450682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9951193946686183</v>
+        <v>0.9958745846803048</v>
       </c>
       <c r="D23">
-        <v>1.01412665090819</v>
+        <v>1.014602215134965</v>
       </c>
       <c r="E23">
-        <v>1.01167816609847</v>
+        <v>1.012333467328433</v>
       </c>
       <c r="F23">
-        <v>1.018603749809579</v>
+        <v>1.019121057574692</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041648899729078</v>
+        <v>1.042016236710842</v>
       </c>
       <c r="J23">
-        <v>1.025410663467053</v>
+        <v>1.026133123982021</v>
       </c>
       <c r="K23">
-        <v>1.029116902033875</v>
+        <v>1.029583600608234</v>
       </c>
       <c r="L23">
-        <v>1.026714235112411</v>
+        <v>1.027357245493455</v>
       </c>
       <c r="M23">
-        <v>1.033510964424706</v>
+        <v>1.034018738978197</v>
       </c>
       <c r="N23">
-        <v>1.011890290336444</v>
+        <v>1.014421831134135</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035094050413222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.035495922856764</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020273719151809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001867580282215</v>
+        <v>1.002004790396741</v>
       </c>
       <c r="D24">
-        <v>1.018838462279507</v>
+        <v>1.018648421903717</v>
       </c>
       <c r="E24">
-        <v>1.016954071345266</v>
+        <v>1.01709640532758</v>
       </c>
       <c r="F24">
-        <v>1.023685885278477</v>
+        <v>1.023792822590071</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043558611480965</v>
+        <v>1.043563922722683</v>
       </c>
       <c r="J24">
-        <v>1.02929392828381</v>
+        <v>1.029425885366011</v>
       </c>
       <c r="K24">
-        <v>1.032542637388328</v>
+        <v>1.032355777931254</v>
       </c>
       <c r="L24">
-        <v>1.03068985537983</v>
+        <v>1.030829796567577</v>
       </c>
       <c r="M24">
-        <v>1.037309437495318</v>
+        <v>1.037414607290147</v>
       </c>
       <c r="N24">
-        <v>1.013236139498052</v>
+        <v>1.014812635437344</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038100303568249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.038183538682901</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020876294353057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009408110232235</v>
+        <v>1.009073749538595</v>
       </c>
       <c r="D25">
-        <v>1.024121524688391</v>
+        <v>1.023365134747276</v>
       </c>
       <c r="E25">
-        <v>1.02288277931242</v>
+        <v>1.022639090616866</v>
       </c>
       <c r="F25">
-        <v>1.029410924373835</v>
+        <v>1.029207957312349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04565608405731</v>
+        <v>1.045371131736917</v>
       </c>
       <c r="J25">
-        <v>1.033622949850391</v>
+        <v>1.033299557477138</v>
       </c>
       <c r="K25">
-        <v>1.036356579319486</v>
+        <v>1.035611250220613</v>
       </c>
       <c r="L25">
-        <v>1.035135959208536</v>
+        <v>1.034895842715759</v>
       </c>
       <c r="M25">
-        <v>1.041569206628206</v>
+        <v>1.041369167061351</v>
       </c>
       <c r="N25">
-        <v>1.014735240636808</v>
+        <v>1.015827033366271</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041471628579814</v>
+        <v>1.041313310870617</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021590988318681</v>
       </c>
     </row>
   </sheetData>
